--- a/Phase 2/Sprint3/Burndown Chart.xlsx
+++ b/Phase 2/Sprint3/Burndown Chart.xlsx
@@ -49,10 +49,10 @@
     <t>Day 7</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>Desenvolvimento do código</t>
+    <t>Adicionar task type a uma tarefa</t>
+  </si>
+  <si>
+    <t>Começar a fazer a user stories tab</t>
   </si>
   <si>
     <t>Completed Effort</t>
@@ -171,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border/>
     <border>
       <left style="medium">
@@ -285,6 +285,17 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="medium">
@@ -306,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -359,29 +370,38 @@
     <xf borderId="7" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="15" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="9" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="9" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="10" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -411,7 +431,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Folha1!$B$6</c:f>
+              <c:f>Folha1!$B$7</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -431,14 +451,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$C$6:$K$6</c:f>
+              <c:f>Folha1!$C$7:$K$7</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="2126114038"/>
-        <c:axId val="211776009"/>
+        <c:axId val="1109132187"/>
+        <c:axId val="1009391769"/>
       </c:barChart>
       <c:lineChart>
         <c:ser>
@@ -446,7 +466,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Folha1!$B$7</c:f>
+              <c:f>Folha1!$B$8</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -466,7 +486,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$C$7:$K$7</c:f>
+              <c:f>Folha1!$C$8:$K$8</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -477,7 +497,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Folha1!$B$8</c:f>
+              <c:f>Folha1!$B$9</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -497,17 +517,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$C$8:$K$8</c:f>
+              <c:f>Folha1!$C$9:$K$9</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2126114038"/>
-        <c:axId val="211776009"/>
+        <c:axId val="1109132187"/>
+        <c:axId val="1009391769"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126114038"/>
+        <c:axId val="1109132187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,10 +579,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211776009"/>
+        <c:crossAx val="1009391769"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211776009"/>
+        <c:axId val="1009391769"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +657,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126114038"/>
+        <c:crossAx val="1109132187"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -668,9 +688,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -962,16 +982,16 @@
         <v>45252.0</v>
       </c>
       <c r="H3" s="11">
-        <v>45648.0</v>
+        <v>45618.0</v>
       </c>
       <c r="I3" s="11">
-        <v>46013.0</v>
+        <v>45983.0</v>
       </c>
       <c r="J3" s="11">
-        <v>46378.0</v>
+        <v>46348.0</v>
       </c>
       <c r="K3" s="11">
-        <v>46743.0</v>
+        <v>46713.0</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -1011,11 +1031,11 @@
       <c r="O4" s="16"/>
     </row>
     <row r="5">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="17">
+        <v>23.0</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="19">
         <v>3.0</v>
@@ -1043,40 +1063,23 @@
       <c r="O5" s="16"/>
     </row>
     <row r="6">
-      <c r="B6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="25">
-        <f t="shared" ref="E6:K6" si="1">SUM(E5)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="25">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="25">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="B6" s="22">
+        <v>24.0</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23">
+        <v>2.0</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -1084,41 +1087,40 @@
       <c r="O6" s="16"/>
     </row>
     <row r="7">
-      <c r="B7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="23"/>
+      <c r="B7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="26"/>
       <c r="D7" s="27">
-        <f>SUM(D5)</f>
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="28">
+        <f>SUM(E5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="28">
+        <f>SUM(F5:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" ref="G7:J7" si="1">SUM(G5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="28">
+        <f>SUM(K5:K6)</f>
         <v>3</v>
-      </c>
-      <c r="E7" s="28">
-        <f t="shared" ref="E7:K7" si="2">D7-SUM(E5)</f>
-        <v>2.5</v>
-      </c>
-      <c r="F7" s="28">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="G7" s="28">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H7" s="28">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="28">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="J7" s="28">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -1127,40 +1129,40 @@
     </row>
     <row r="8">
       <c r="B8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="26"/>
       <c r="D8" s="30">
-        <f>D7</f>
+        <f>SUM(D5:D6)</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" ref="E8:K8" si="2">D8-SUM(E5:E6)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="31">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="31">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="J8" s="31">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E8" s="31">
-        <f>$D$7-($D$7/10*1)</f>
-        <v>2.7</v>
-      </c>
-      <c r="F8" s="31">
-        <f>$D$7-($D$7/10*2)</f>
-        <v>2.4</v>
-      </c>
-      <c r="G8" s="31">
-        <f>$D$7-($D$7/10*3)</f>
-        <v>2.1</v>
-      </c>
-      <c r="H8" s="31">
-        <f>$D$7-($D$7/10*4)</f>
-        <v>1.8</v>
-      </c>
-      <c r="I8" s="31">
-        <f>$D$7-($D$7/10*5)</f>
-        <v>1.5</v>
-      </c>
-      <c r="J8" s="31">
-        <f>$D$7-($D$7/10*6)</f>
-        <v>1.2</v>
-      </c>
       <c r="K8" s="31">
-        <f>$D$7-($D$7/10*7)</f>
-        <v>0.9</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -1168,16 +1170,50 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9">
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="B9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="33">
+        <f>D8</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="34">
+        <f>$D$8-($D$8/10*1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="34">
+        <f>$D$8-($D$8/10*2)</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="34">
+        <f>$D$8-($D$8/10*3)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="34">
+        <f>$D$8-($D$8/10*4)</f>
+        <v>3</v>
+      </c>
+      <c r="I9" s="34">
+        <f>$D$8-($D$8/10*5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="J9" s="34">
+        <f>$D$8-($D$8/10*6)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="34">
+        <f>$D$8-($D$8/10*7)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
     </row>
     <row r="10">
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1185,9 +1221,9 @@
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
